--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ptn-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ptn-Ptprz1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3206776666666667</v>
+        <v>0.07024999999999999</v>
       </c>
       <c r="H2">
-        <v>0.962033</v>
+        <v>0.21075</v>
       </c>
       <c r="I2">
-        <v>0.03001977461414601</v>
+        <v>0.005236595731231519</v>
       </c>
       <c r="J2">
-        <v>0.03001977461414601</v>
+        <v>0.005236595731231519</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.03995766666666667</v>
+        <v>0.01848533333333334</v>
       </c>
       <c r="N2">
-        <v>0.119873</v>
+        <v>0.05545600000000001</v>
       </c>
       <c r="O2">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="P2">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="Q2">
-        <v>0.01281353131211111</v>
+        <v>0.001298594666666667</v>
       </c>
       <c r="R2">
-        <v>0.115321781809</v>
+        <v>0.011687352</v>
       </c>
       <c r="S2">
-        <v>0.0001595530285689575</v>
+        <v>8.510525490979146E-06</v>
       </c>
       <c r="T2">
-        <v>0.0001595530285689575</v>
+        <v>8.510525490979144E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3206776666666667</v>
+        <v>0.07024999999999999</v>
       </c>
       <c r="H3">
-        <v>0.962033</v>
+        <v>0.21075</v>
       </c>
       <c r="I3">
-        <v>0.03001977461414601</v>
+        <v>0.005236595731231519</v>
       </c>
       <c r="J3">
-        <v>0.03001977461414601</v>
+        <v>0.005236595731231519</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.092074</v>
       </c>
       <c r="O3">
-        <v>0.004082378436578614</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="P3">
-        <v>0.004082378436578615</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="Q3">
-        <v>0.009842025160222223</v>
+        <v>0.002156066166666666</v>
       </c>
       <c r="R3">
-        <v>0.088578226442</v>
+        <v>0.0194045955</v>
       </c>
       <c r="S3">
-        <v>0.0001225520805557398</v>
+        <v>1.413008734954583E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001225520805557398</v>
+        <v>1.413008734954583E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3206776666666667</v>
+        <v>0.07024999999999999</v>
       </c>
       <c r="H4">
-        <v>0.962033</v>
+        <v>0.21075</v>
       </c>
       <c r="I4">
-        <v>0.03001977461414601</v>
+        <v>0.005236595731231519</v>
       </c>
       <c r="J4">
-        <v>0.03001977461414601</v>
+        <v>0.005236595731231519</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.447354000000001</v>
+        <v>11.32499966666667</v>
       </c>
       <c r="N4">
-        <v>22.342062</v>
+        <v>33.974999</v>
       </c>
       <c r="O4">
-        <v>0.9906026906347337</v>
+        <v>0.9956764634883892</v>
       </c>
       <c r="P4">
-        <v>0.9906026906347338</v>
+        <v>0.995676463488389</v>
       </c>
       <c r="Q4">
-        <v>2.388200103560667</v>
+        <v>0.7955812265833334</v>
       </c>
       <c r="R4">
-        <v>21.493800932046</v>
+        <v>7.16023103925</v>
       </c>
       <c r="S4">
-        <v>0.02973766950502131</v>
+        <v>0.005213955118390994</v>
       </c>
       <c r="T4">
-        <v>0.02973766950502132</v>
+        <v>0.005213955118390993</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>17.256823</v>
       </c>
       <c r="I5">
-        <v>0.5384908178993973</v>
+        <v>0.4287876899474159</v>
       </c>
       <c r="J5">
-        <v>0.5384908178993975</v>
+        <v>0.4287876899474159</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.03995766666666667</v>
+        <v>0.01848533333333334</v>
       </c>
       <c r="N5">
-        <v>0.119873</v>
+        <v>0.05545600000000001</v>
       </c>
       <c r="O5">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="P5">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="Q5">
-        <v>0.2298474603865556</v>
+        <v>0.1063327084764445</v>
       </c>
       <c r="R5">
-        <v>2.068627143479</v>
+        <v>0.9569943762880001</v>
       </c>
       <c r="S5">
-        <v>0.002862041502867825</v>
+        <v>0.0006968665814226108</v>
       </c>
       <c r="T5">
-        <v>0.002862041502867826</v>
+        <v>0.0006968665814226107</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>17.256823</v>
       </c>
       <c r="I6">
-        <v>0.5384908178993973</v>
+        <v>0.4287876899474159</v>
       </c>
       <c r="J6">
-        <v>0.5384908178993975</v>
+        <v>0.4287876899474159</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.092074</v>
       </c>
       <c r="O6">
-        <v>0.004082378436578614</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="P6">
-        <v>0.004082378436578615</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="Q6">
         <v>0.1765449689891111</v>
@@ -818,10 +818,10 @@
         <v>1.588904720902</v>
       </c>
       <c r="S6">
-        <v>0.002198323303288081</v>
+        <v>0.001157012651794314</v>
       </c>
       <c r="T6">
-        <v>0.002198323303288082</v>
+        <v>0.001157012651794313</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>17.256823</v>
       </c>
       <c r="I7">
-        <v>0.5384908178993973</v>
+        <v>0.4287876899474159</v>
       </c>
       <c r="J7">
-        <v>0.5384908178993975</v>
+        <v>0.4287876899474159</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.447354000000001</v>
+        <v>11.32499966666667</v>
       </c>
       <c r="N7">
-        <v>22.342062</v>
+        <v>33.974999</v>
       </c>
       <c r="O7">
-        <v>0.9906026906347337</v>
+        <v>0.9956764634883892</v>
       </c>
       <c r="P7">
-        <v>0.9906026906347338</v>
+        <v>0.995676463488389</v>
       </c>
       <c r="Q7">
-        <v>42.83922326544734</v>
+        <v>65.14450490757524</v>
       </c>
       <c r="R7">
-        <v>385.553009389026</v>
+        <v>586.3005441681771</v>
       </c>
       <c r="S7">
-        <v>0.5334304530932414</v>
+        <v>0.426933810714199</v>
       </c>
       <c r="T7">
-        <v>0.5334304530932417</v>
+        <v>0.4269338107141989</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.609262333333334</v>
+        <v>7.592679666666666</v>
       </c>
       <c r="H8">
-        <v>13.827787</v>
+        <v>22.778039</v>
       </c>
       <c r="I8">
-        <v>0.4314894074864565</v>
+        <v>0.5659757143213526</v>
       </c>
       <c r="J8">
-        <v>0.4314894074864565</v>
+        <v>0.5659757143213525</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.03995766666666667</v>
+        <v>0.01848533333333334</v>
       </c>
       <c r="N8">
-        <v>0.119873</v>
+        <v>0.05545600000000001</v>
       </c>
       <c r="O8">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="P8">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="Q8">
-        <v>0.1841753678945556</v>
+        <v>0.1403532145315556</v>
       </c>
       <c r="R8">
-        <v>1.657578311051</v>
+        <v>1.263178930784</v>
       </c>
       <c r="S8">
-        <v>0.002293336397250883</v>
+        <v>0.000919824823459156</v>
       </c>
       <c r="T8">
-        <v>0.002293336397250884</v>
+        <v>0.0009198248234591558</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.609262333333334</v>
+        <v>7.592679666666666</v>
       </c>
       <c r="H9">
-        <v>13.827787</v>
+        <v>22.778039</v>
       </c>
       <c r="I9">
-        <v>0.4314894074864565</v>
+        <v>0.5659757143213526</v>
       </c>
       <c r="J9">
-        <v>0.4314894074864565</v>
+        <v>0.5659757143213525</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.092074</v>
       </c>
       <c r="O9">
-        <v>0.004082378436578614</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="P9">
-        <v>0.004082378436578615</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="Q9">
-        <v>0.1414644066931111</v>
+        <v>0.2330294625428889</v>
       </c>
       <c r="R9">
-        <v>1.273179660238</v>
+        <v>2.097265162886</v>
       </c>
       <c r="S9">
-        <v>0.001761503052734793</v>
+        <v>0.001527191842094243</v>
       </c>
       <c r="T9">
-        <v>0.001761503052734793</v>
+        <v>0.001527191842094242</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.609262333333334</v>
+        <v>7.592679666666666</v>
       </c>
       <c r="H10">
-        <v>13.827787</v>
+        <v>22.778039</v>
       </c>
       <c r="I10">
-        <v>0.4314894074864565</v>
+        <v>0.5659757143213526</v>
       </c>
       <c r="J10">
-        <v>0.4314894074864565</v>
+        <v>0.5659757143213525</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.447354000000001</v>
+        <v>11.32499966666667</v>
       </c>
       <c r="N10">
-        <v>22.342062</v>
+        <v>33.974999</v>
       </c>
       <c r="O10">
-        <v>0.9906026906347337</v>
+        <v>0.9956764634883892</v>
       </c>
       <c r="P10">
-        <v>0.9906026906347338</v>
+        <v>0.995676463488389</v>
       </c>
       <c r="Q10">
-        <v>34.32680827519934</v>
+        <v>85.98709469410679</v>
       </c>
       <c r="R10">
-        <v>308.941274476794</v>
+        <v>773.8838522469611</v>
       </c>
       <c r="S10">
-        <v>0.4274345680364708</v>
+        <v>0.5635286976557993</v>
       </c>
       <c r="T10">
-        <v>0.4274345680364709</v>
+        <v>0.563528697655799</v>
       </c>
     </row>
   </sheetData>
